--- a/Public Welfare Platform Quotation.xlsx
+++ b/Public Welfare Platform Quotation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" tabRatio="500" activeTab="2"/>
@@ -13,14 +13,14 @@
     <sheet name="定价" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">功能清单!$A$1:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">功能清单!$A$1:$H$92</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="248">
   <si>
     <t>序号</t>
   </si>
@@ -686,48 +686,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>可通过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>忘记密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块可找回帐号，保证用户信息和积分不会丢失，增加用户体验</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>通过网站可以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修改头像</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>展示头像用户名等级及其它用户信息</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -736,23 +694,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>修改登录密码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>可以通过微信直接登录微网站，减少登录流程</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户通过手机中微信登录网站</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/categories/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/products/1/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -825,23 +771,545 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/products/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/products/exchangerule</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000/home</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>会员积分管理是对会员积分，兑换相关业务进行管理，可记录回溯兑换业务信息，包括手机号码、会员名称、兑换时间、兑换金额、本次积分、兑换商品、办理渠道、结算方式等，可通过电话以及选择相应开始时间到结束时间进行查询；可支撑会员的退积分业务处理。如果客户有ERP系统，各笔消费相关业务操作记录券可通过接口同步至ERP系统。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户通过手机注册成为会员，推荐使用手机号注册保证用户的真实性和唯一性，收集准确的会员资料，为后期营销增加有效的用户量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mature</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忘记密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块可找回帐号，保证用户信息和积分不会丢失，增加用户体验</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改登录密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 - product</t>
+  </si>
+  <si>
+    <t>3 - product</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 - basic</t>
+  </si>
+  <si>
+    <t>2 - basic</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 - demo</t>
+  </si>
+  <si>
+    <t>1 - demo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - not impl</t>
+  </si>
+  <si>
+    <t>0 - not impl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>products</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>categories</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>products/1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>products/exchangerule</t>
+  </si>
+  <si>
+    <t>newsletter</t>
+  </si>
+  <si>
+    <t>0 - challenge</t>
+  </si>
+  <si>
+    <t>0 - challenge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - unclear req</t>
+  </si>
+  <si>
+    <t>0 - unclear req</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - plan</t>
+  </si>
+  <si>
+    <t>0 - plan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>众筹信息，方便之后可以快速找到</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对本条众筹可以添加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过网站可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头像</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登陆能成功，登陆之后要再更新信息还没有实现手机注册部分。</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过微信访问网站，根据登陆微信的账号自动登陆</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>demo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已完成，但是手机短信机制没实现，且界面不够完善，后面可以尝试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>package-authall</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册的忘记密码功能</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可修改头像，但是界面不美观</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不是难点，关键看后面数据怎么组织</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片上传这块的位子需要再调整一下，整体布局不够。
+而且修改完了之后不能在当前页面直接更新</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册的修改密码功能</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚动消息展示</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可参考产品展示</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可参考类别展示</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可参考产品详情</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论功能已实现，但是不够完善且界面不够好看</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏夹功能已实现，但是要改变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，变成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>per user</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信，微博的已完成，其他可根据需求完成</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可参考产品详情</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求不清</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，改成手机注册后，用户增加有问题，因为它分步注册第一步没有手机号</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +1317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -935,8 +1403,42 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,25 +1453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,25 +1471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,12 +1617,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1190,69 +1650,56 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,10 +1735,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1303,17 +1750,157 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1677,475 +2264,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>194</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="15">
         <v>7</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>910</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <f>F2*G2</f>
         <v>6370</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>7</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>910</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="0">F3*G3</f>
         <v>6370</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>7</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>910</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>6370</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>5</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>910</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <f t="shared" si="0"/>
         <v>4550</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>7</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>910</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>6370</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>30</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>910</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>27300</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>30</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>910</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>27300</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="27">
         <f>SUM(F2:F8)</f>
         <v>93</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27">
         <f>SUMPRODUCT(F2:F8,G2:G8)</f>
         <v>84630</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>3</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>910</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <f>F10*G10</f>
         <v>2730</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <v>910</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <f t="shared" ref="H11:H14" si="1">F11*G11</f>
         <v>2730</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>3</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>910</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <f t="shared" si="1"/>
         <v>2730</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>3</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>910</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <f t="shared" si="1"/>
         <v>2730</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <v>3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <v>910</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <f t="shared" si="1"/>
         <v>2730</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="30">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="27">
         <f>SUM(F10:F14)</f>
         <v>15</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27">
         <f>SUMPRODUCT(F10:F14,G10:G14)</f>
         <v>13650</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="30">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="31" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F21" s="28">
+      <c r="F21" s="23">
         <f>F9+F15+F20</f>
         <v>108</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="23">
         <f>H9+H15+H20</f>
         <v>98280</v>
       </c>
@@ -2184,472 +2771,472 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="16" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A21" s="14">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A23" s="14">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A26" s="14">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A28" s="14">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="18" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2670,26 +3257,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="65.625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="2.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="65.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="65" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -2699,107 +3288,156 @@
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="F1" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="22">
+        <f t="shared" ref="E2:E33" si="0">COUNTIF(C:C,C2)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>201</v>
-      </c>
-      <c r="E2" s="27">
-        <f>COUNTIF(C:C,C2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="27">
-        <f t="shared" ref="E3:E66" si="0">COUNTIF(C:C,C3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>209</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="2" t="s">
+      <c r="F4" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>195</v>
+      <c r="D5" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="54" t="s">
+      <c r="F5" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
+      <c r="B6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>197</v>
+      <c r="D6" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="2" t="s">
+      <c r="F6" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>196</v>
+      <c r="D7" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="2" t="s">
+      <c r="F7" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="60" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -2809,11 +3447,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="2" t="s">
+      <c r="F8" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="60" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2823,10 +3468,17 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="55"/>
+      <c r="F9" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="8" t="s">
         <v>70</v>
       </c>
@@ -2837,11 +3489,18 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="8" t="s">
+      <c r="F10" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="60" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2851,162 +3510,228 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="54" t="s">
+      <c r="F11" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>198</v>
+      <c r="D12" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="8" t="s">
+      <c r="F12" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>199</v>
+      <c r="D13" s="30" t="s">
+        <v>204</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="8" t="s">
+      <c r="F13" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="8" t="s">
+      <c r="F14" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="54" t="s">
+      <c r="F15" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="8" t="s">
+      <c r="F16" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F17" s="37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="10" t="s">
+      <c r="F17" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="52"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="7" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="63" t="s">
+      <c r="F18" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="38" t="s">
+      <c r="F19" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="54" t="s">
+      <c r="F20" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="7" t="s">
         <v>97</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="8" t="s">
+      <c r="F21" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="60" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3016,238 +3741,326 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="8" t="s">
+      <c r="F22" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="8" t="s">
+      <c r="F23" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="8" t="s">
+      <c r="F24" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>105</v>
+      <c r="D25" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="8" t="s">
+      <c r="F25" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>107</v>
+      <c r="D26" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="8" t="s">
+      <c r="F26" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="8" t="s">
+      <c r="F27" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="8" t="s">
+      <c r="F28" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="63"/>
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="8" t="s">
+      <c r="F29" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="63"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57" t="s">
+      <c r="F30" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="63"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+      <c r="B31" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="35" t="s">
-        <v>204</v>
+      <c r="D31" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F31" s="37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="8" t="s">
+      <c r="F31" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="7" t="s">
         <v>120</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F32" s="37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="8" t="s">
+      <c r="F32" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F33" s="37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="8" t="s">
+      <c r="F33" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="60" t="s">
         <v>123</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="8" t="s">
+        <f t="shared" ref="E34:E65" si="1">COUNTIF(C:C,C34)</f>
+        <v>2</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="60" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="63"/>
+      <c r="H35" s="34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="22" t="s">
         <v>184</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="57"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="27" t="s">
+      <c r="E36" s="22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="60"/>
+      <c r="E37" s="22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="3" t="s">
         <v>186</v>
       </c>
@@ -3255,13 +4068,16 @@
         <v>58</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3269,13 +4085,16 @@
         <v>60</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="54" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F39" s="37"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="49" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3285,13 +4104,16 @@
         <v>63</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="57"/>
-      <c r="B41" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F40" s="37"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
@@ -3299,13 +4121,16 @@
         <v>65</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="57"/>
-      <c r="B42" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="37"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
@@ -3313,13 +4138,16 @@
         <v>67</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57"/>
-      <c r="B43" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F42" s="37"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="2" t="s">
         <v>68</v>
       </c>
@@ -3327,13 +4155,16 @@
         <v>69</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
-      <c r="B44" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="34"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="52"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="8" t="s">
         <v>70</v>
       </c>
@@ -3341,13 +4172,16 @@
         <v>71</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="57"/>
-      <c r="B45" s="56"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="52"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="8" t="s">
         <v>72</v>
       </c>
@@ -3355,13 +4189,16 @@
         <v>73</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
-      <c r="B46" s="54" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="34"/>
+    </row>
+    <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="52"/>
+      <c r="B46" s="49" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -3371,13 +4208,16 @@
         <v>76</v>
       </c>
       <c r="E46" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="57"/>
-      <c r="B47" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="34"/>
+    </row>
+    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="52"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="8" t="s">
         <v>77</v>
       </c>
@@ -3385,13 +4225,16 @@
         <v>78</v>
       </c>
       <c r="E47" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="57"/>
-      <c r="B48" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="34"/>
+    </row>
+    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="8" t="s">
         <v>79</v>
       </c>
@@ -3399,13 +4242,16 @@
         <v>80</v>
       </c>
       <c r="E48" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="57"/>
-      <c r="B49" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="52"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="8" t="s">
         <v>81</v>
       </c>
@@ -3413,13 +4259,16 @@
         <v>82</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
-      <c r="B50" s="56"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F49" s="38"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="52"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="8" t="s">
         <v>129</v>
       </c>
@@ -3427,12 +4276,15 @@
         <v>130</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="57"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="52"/>
       <c r="B51" s="2" t="s">
         <v>131</v>
       </c>
@@ -3443,13 +4295,16 @@
         <v>85</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
-      <c r="B52" s="54" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F51" s="38"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="52"/>
+      <c r="B52" s="49" t="s">
         <v>132</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -3459,13 +4314,16 @@
         <v>87</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="57"/>
-      <c r="B53" s="56"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="38"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="52"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="10" t="s">
         <v>88</v>
       </c>
@@ -3473,13 +4331,16 @@
         <v>89</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="38"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -3489,27 +4350,33 @@
         <v>92</v>
       </c>
       <c r="E54" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="21" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F54" s="38"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="34"/>
+    </row>
+    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="19" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
-      <c r="B56" s="54" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52"/>
+      <c r="B56" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -3519,13 +4386,16 @@
         <v>97</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="57"/>
-      <c r="B57" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F56" s="38"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="34"/>
+    </row>
+    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="8" t="s">
         <v>98</v>
       </c>
@@ -3533,13 +4403,16 @@
         <v>99</v>
       </c>
       <c r="E57" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
-      <c r="B58" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F57" s="38"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="34"/>
+    </row>
+    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="8" t="s">
         <v>100</v>
       </c>
@@ -3547,13 +4420,16 @@
         <v>101</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
-      <c r="B59" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F58" s="38"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="34"/>
+    </row>
+    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="52"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="8" t="s">
         <v>102</v>
       </c>
@@ -3561,13 +4437,16 @@
         <v>103</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F59" s="38"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="34"/>
+    </row>
+    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="52"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="8" t="s">
         <v>104</v>
       </c>
@@ -3575,13 +4454,16 @@
         <v>105</v>
       </c>
       <c r="E60" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F60" s="38"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="34"/>
+    </row>
+    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="52"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="8" t="s">
         <v>106</v>
       </c>
@@ -3589,13 +4471,16 @@
         <v>107</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="52"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="8" t="s">
         <v>108</v>
       </c>
@@ -3603,13 +4488,16 @@
         <v>109</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
-      <c r="B63" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="34"/>
+    </row>
+    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="52"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="8" t="s">
         <v>110</v>
       </c>
@@ -3617,13 +4505,16 @@
         <v>133</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="55"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="34"/>
+    </row>
+    <row r="64" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="52"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="8" t="s">
         <v>112</v>
       </c>
@@ -3631,13 +4522,16 @@
         <v>113</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="56"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="34"/>
+    </row>
+    <row r="65" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="52"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="8" t="s">
         <v>114</v>
       </c>
@@ -3645,13 +4539,16 @@
         <v>115</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57" t="s">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="34"/>
+    </row>
+    <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="52"/>
+      <c r="B66" s="52" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -3661,13 +4558,16 @@
         <v>118</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
+        <f t="shared" ref="E66:E92" si="2">COUNTIF(C:C,C66)</f>
+        <v>2</v>
+      </c>
+      <c r="F66" s="38"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="34"/>
+    </row>
+    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="8" t="s">
         <v>119</v>
       </c>
@@ -3675,13 +4575,16 @@
         <v>120</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" ref="E67:E92" si="1">COUNTIF(C:C,C67)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="34"/>
+    </row>
+    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="8" t="s">
         <v>121</v>
       </c>
@@ -3689,13 +4592,16 @@
         <v>122</v>
       </c>
       <c r="E68" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57"/>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F68" s="38"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="34"/>
+    </row>
+    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="8" t="s">
         <v>123</v>
       </c>
@@ -3703,13 +4609,16 @@
         <v>124</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F69" s="38"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="34"/>
+    </row>
+    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="8" t="s">
         <v>125</v>
       </c>
@@ -3717,334 +4626,492 @@
         <v>126</v>
       </c>
       <c r="E70" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="24" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="61" t="s">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="34"/>
+    </row>
+    <row r="71" spans="1:8" ht="24" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="7" t="s">
         <v>137</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.15">
-      <c r="A72" s="55"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="2" t="s">
+      <c r="F71" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="H71" s="34"/>
+    </row>
+    <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="48" x14ac:dyDescent="0.15">
-      <c r="A73" s="55"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="2" t="s">
+      <c r="F72" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="H72" s="34"/>
+    </row>
+    <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>208</v>
+      <c r="D73" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
+      <c r="F73" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" s="63"/>
+      <c r="H73" s="34"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="50"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="2" t="s">
+      <c r="F74" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G74" s="63"/>
+      <c r="H74" s="34"/>
+    </row>
+    <row r="75" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="55"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="2" t="s">
+      <c r="F75" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G75" s="63"/>
+      <c r="H75" s="34"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="50"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="7" t="s">
         <v>146</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="55"/>
-      <c r="B77" s="54" t="s">
+      <c r="F76" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" s="63"/>
+      <c r="H76" s="34"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="50"/>
+      <c r="B77" s="49" t="s">
         <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E77" s="2">
-        <f t="shared" si="1"/>
+      <c r="E77" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="55"/>
-      <c r="B78" s="56"/>
+      <c r="F77" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" s="63"/>
+      <c r="H77" s="34"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="50"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E78" s="2">
-        <f t="shared" si="1"/>
+      <c r="E78" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="55"/>
-      <c r="B79" s="58" t="s">
+      <c r="F78" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G78" s="63"/>
+      <c r="H78" s="34"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="50"/>
+      <c r="B79" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="11">
-        <f t="shared" si="1"/>
+      <c r="E79" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="55"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="11" t="s">
+      <c r="F79" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G79" s="63"/>
+      <c r="H79" s="34"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="50"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E80" s="11">
-        <f t="shared" si="1"/>
+      <c r="E80" s="8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="55"/>
-      <c r="B81" s="57" t="s">
+      <c r="F80" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G80" s="63"/>
+      <c r="H80" s="34"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="50"/>
+      <c r="B81" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="7" t="s">
         <v>159</v>
       </c>
       <c r="E81" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="55"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="8" t="s">
+      <c r="F81" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G81" s="63"/>
+      <c r="H81" s="34"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="50"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="7" t="s">
         <v>161</v>
       </c>
       <c r="E82" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="55"/>
-      <c r="B83" s="54" t="s">
+      <c r="F82" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G82" s="63"/>
+      <c r="H82" s="34"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="50"/>
+      <c r="B83" s="49" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="7" t="s">
         <v>164</v>
       </c>
       <c r="E83" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
+      <c r="F83" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83" s="63"/>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="50"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E84" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
+      <c r="F84" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G84" s="63"/>
+      <c r="H84" s="34"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="7" t="s">
         <v>167</v>
       </c>
       <c r="E85" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
+      <c r="F85" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G85" s="63"/>
+      <c r="H85" s="34"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="7" t="s">
         <v>169</v>
       </c>
       <c r="E86" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="55"/>
-      <c r="B87" s="55"/>
+      <c r="F86" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G86" s="63"/>
+      <c r="H86" s="34"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="50"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="7" t="s">
         <v>171</v>
       </c>
       <c r="E87" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="55"/>
-      <c r="B88" s="56"/>
+      <c r="F87" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G87" s="63"/>
+      <c r="H87" s="34"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="50"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="7" t="s">
         <v>173</v>
       </c>
       <c r="E88" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="55"/>
-      <c r="B89" s="57" t="s">
+      <c r="F88" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G88" s="63"/>
+      <c r="H88" s="34"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="50"/>
+      <c r="B89" s="52" t="s">
         <v>174</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="7" t="s">
         <v>176</v>
       </c>
       <c r="E89" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="55"/>
-      <c r="B90" s="57"/>
+      <c r="F89" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G89" s="63"/>
+      <c r="H89" s="34"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="50"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E90" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="55"/>
-      <c r="B91" s="57"/>
+      <c r="F90" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G90" s="63"/>
+      <c r="H90" s="34"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="50"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="7" t="s">
         <v>180</v>
       </c>
       <c r="E91" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="56"/>
-      <c r="B92" s="57"/>
+      <c r="F91" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G91" s="63"/>
+      <c r="H91" s="34"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="51"/>
+      <c r="B92" s="52"/>
       <c r="C92" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="7" t="s">
         <v>182</v>
       </c>
       <c r="E92" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="F92" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G92" s="63"/>
+      <c r="H92" s="34"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F94" s="33"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F95" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F96" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E92"/>
+  <autoFilter ref="A1:H92"/>
   <mergeCells count="23">
     <mergeCell ref="A2:A35"/>
     <mergeCell ref="A36:A70"/>
@@ -4071,15 +5138,32 @@
     <mergeCell ref="B81:B82"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>$F$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>$F$100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>$F$99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+      <formula>$F$97</formula>
+      <formula>$F$98</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F92">
+      <formula1>$F$95:$F$101</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1"/>
-    <hyperlink ref="F33" r:id="rId2"/>
-    <hyperlink ref="F31" r:id="rId3"/>
-    <hyperlink ref="F35" r:id="rId4"/>
-    <hyperlink ref="F17" r:id="rId5"/>
+    <hyperlink ref="G33" r:id="rId1" display="http://127.0.0.1:8000/products/1/"/>
+    <hyperlink ref="G35" r:id="rId2" display="http://127.0.0.1:8000/products/exchangerule"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4094,7 +5178,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4102,7 +5186,7 @@
       <c r="A2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <f>ROUNDUP(10000/22,0)</f>
         <v>455</v>
       </c>
@@ -4111,7 +5195,7 @@
       <c r="A3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <f>ROUNDUP(20000/22,0)</f>
         <v>910</v>
       </c>

--- a/Public Welfare Platform Quotation.xlsx
+++ b/Public Welfare Platform Quotation.xlsx
@@ -11,6 +11,7 @@
     <sheet name="报价（含手机APP）" sheetId="2" r:id="rId2"/>
     <sheet name="功能清单" sheetId="3" r:id="rId3"/>
     <sheet name="定价" sheetId="4" r:id="rId4"/>
+    <sheet name="登陆" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">功能清单!$A$1:$H$92</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="260">
   <si>
     <t>序号</t>
   </si>
@@ -1310,6 +1311,54 @@
       </rPr>
       <t>，改成手机注册后，用户增加有问题，因为它分步注册第一步没有手机号</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据激活码激活用户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存用户instance和激活profile，并发送激活邮件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送验证码，验证通过后创建用户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户其他信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送验证码，验证通过后浸入设置密码界面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信登陆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证成功后如果是新用户则进入注册界面，否则自动登陆</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1585,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,6 +1742,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1723,16 +1793,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1741,38 +1823,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1780,7 +1832,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1799,90 +1851,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2293,7 +2261,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -2320,7 +2288,7 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2345,7 +2313,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
@@ -2370,7 +2338,7 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2395,7 +2363,7 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
@@ -2420,7 +2388,7 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
@@ -2445,7 +2413,7 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
@@ -2470,11 +2438,11 @@
       <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="26" t="s">
         <v>8</v>
       </c>
@@ -2492,7 +2460,7 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="49" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2519,7 +2487,7 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
@@ -2544,7 +2512,7 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2569,7 +2537,7 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
@@ -2594,7 +2562,7 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
@@ -2619,11 +2587,11 @@
       <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="28" t="s">
         <v>8</v>
       </c>
@@ -2641,7 +2609,7 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -2661,7 +2629,7 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2679,7 +2647,7 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
@@ -2697,7 +2665,7 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
@@ -2715,11 +2683,11 @@
       <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="26" t="s">
         <v>37</v>
       </c>
@@ -2792,7 +2760,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -2810,7 +2778,7 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2826,7 +2794,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
@@ -2842,7 +2810,7 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2858,7 +2826,7 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
@@ -2874,7 +2842,7 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
@@ -2890,7 +2858,7 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
@@ -2906,11 +2874,11 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="16" t="s">
         <v>8</v>
       </c>
@@ -2920,7 +2888,7 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="49" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2938,7 +2906,7 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2922,7 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2970,7 +2938,7 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +2954,7 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
@@ -3002,7 +2970,7 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
@@ -3018,7 +2986,7 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
@@ -3034,11 +3002,11 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +3016,7 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="49" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3066,7 +3034,7 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
@@ -3082,7 +3050,7 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
@@ -3098,7 +3066,7 @@
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
@@ -3114,7 +3082,7 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
@@ -3130,7 +3098,7 @@
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
@@ -3146,11 +3114,11 @@
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="14" t="s">
         <v>8</v>
       </c>
@@ -3160,7 +3128,7 @@
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="50" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -3180,7 +3148,7 @@
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
@@ -3196,7 +3164,7 @@
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
@@ -3212,7 +3180,7 @@
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="13" t="s">
         <v>42</v>
       </c>
@@ -3228,11 +3196,11 @@
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="16" t="s">
         <v>37</v>
       </c>
@@ -3260,10 +3228,10 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3274,7 +3242,7 @@
     <col min="4" max="4" width="65.625" style="18" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="45" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3297,21 +3265,21 @@
       <c r="F1" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="42" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="39" t="s">
         <v>190</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -3321,18 +3289,18 @@
         <f t="shared" ref="E2:E33" si="0">COUNTIF(C:C,C2)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="43" t="s">
         <v>230</v>
       </c>
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="30" t="s">
@@ -3345,15 +3313,15 @@
       <c r="F3" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="39" t="s">
         <v>185</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -3366,15 +3334,15 @@
       <c r="F4" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="43" t="s">
         <v>232</v>
       </c>
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="40" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="30" t="s">
@@ -3387,17 +3355,17 @@
       <c r="F5" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="43" t="s">
         <v>233</v>
       </c>
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -3410,13 +3378,13 @@
       <c r="F6" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="63"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="60" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="40" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -3429,15 +3397,15 @@
       <c r="F7" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="43" t="s">
         <v>234</v>
       </c>
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="60" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -3450,15 +3418,15 @@
       <c r="F8" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="43" t="s">
         <v>235</v>
       </c>
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="60" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="40" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -3471,14 +3439,14 @@
       <c r="F9" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="43" t="s">
         <v>235</v>
       </c>
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="8" t="s">
         <v>70</v>
       </c>
@@ -3492,15 +3460,15 @@
       <c r="F10" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="43" t="s">
         <v>235</v>
       </c>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="60" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="40" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -3513,17 +3481,17 @@
       <c r="F11" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="43" t="s">
         <v>235</v>
       </c>
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="40" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -3536,15 +3504,15 @@
       <c r="F12" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="43" t="s">
         <v>236</v>
       </c>
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="60" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="40" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="30" t="s">
@@ -3557,15 +3525,15 @@
       <c r="F13" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="43" t="s">
         <v>237</v>
       </c>
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="60" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="40" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -3578,13 +3546,13 @@
       <c r="F14" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="60" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="30" t="s">
@@ -3597,15 +3565,15 @@
       <c r="F15" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="40" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -3618,15 +3586,15 @@
       <c r="F16" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="43" t="s">
         <v>238</v>
       </c>
       <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="60" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3639,15 +3607,15 @@
       <c r="F17" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G17" s="64"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="34" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="61" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="41" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -3660,17 +3628,17 @@
       <c r="F18" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="43" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="40" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -3683,13 +3651,13 @@
       <c r="F19" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="63"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="60" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="40" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -3702,15 +3670,15 @@
       <c r="F20" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="40" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -3723,15 +3691,15 @@
       <c r="F21" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="43" t="s">
         <v>239</v>
       </c>
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="60" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="40" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3744,15 +3712,15 @@
       <c r="F22" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="43" t="s">
         <v>240</v>
       </c>
       <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="60" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="40" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -3765,15 +3733,15 @@
       <c r="F23" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="43" t="s">
         <v>241</v>
       </c>
       <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="60" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="40" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -3786,13 +3754,13 @@
       <c r="F24" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="63"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="60" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="40" t="s">
         <v>104</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -3805,15 +3773,15 @@
       <c r="F25" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="43" t="s">
         <v>242</v>
       </c>
       <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="60" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="40" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -3826,15 +3794,15 @@
       <c r="F26" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="43" t="s">
         <v>243</v>
       </c>
       <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="60" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="40" t="s">
         <v>108</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -3847,15 +3815,15 @@
       <c r="F27" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="43" t="s">
         <v>244</v>
       </c>
       <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="60" t="s">
+      <c r="A28" s="56"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3868,13 +3836,13 @@
       <c r="F28" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="60" t="s">
+      <c r="A29" s="56"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="40" t="s">
         <v>112</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -3887,13 +3855,13 @@
       <c r="F29" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="60" t="s">
+      <c r="A30" s="56"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -3906,15 +3874,15 @@
       <c r="F30" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="40" t="s">
         <v>117</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -3927,7 +3895,7 @@
       <c r="F31" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="43" t="s">
         <v>239</v>
       </c>
       <c r="H31" s="34" t="s">
@@ -3935,9 +3903,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="60" t="s">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="40" t="s">
         <v>119</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -3950,7 +3918,7 @@
       <c r="F32" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="43" t="s">
         <v>240</v>
       </c>
       <c r="H32" s="34" t="s">
@@ -3958,9 +3926,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="60" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="40" t="s">
         <v>121</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3973,7 +3941,7 @@
       <c r="F33" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G33" s="63" t="s">
+      <c r="G33" s="43" t="s">
         <v>245</v>
       </c>
       <c r="H33" s="34" t="s">
@@ -3981,9 +3949,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="60" t="s">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -3996,13 +3964,13 @@
       <c r="F34" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="63"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="60" t="s">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -4015,16 +3983,16 @@
       <c r="F35" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G35" s="63"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="61" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -4038,12 +4006,12 @@
         <v>2</v>
       </c>
       <c r="F36" s="35"/>
-      <c r="G36" s="63"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="22" t="s">
         <v>56</v>
       </c>
@@ -4055,12 +4023,12 @@
         <v>2</v>
       </c>
       <c r="F37" s="35"/>
-      <c r="G37" s="63"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="3" t="s">
         <v>186</v>
       </c>
@@ -4072,12 +4040,12 @@
         <v>2</v>
       </c>
       <c r="F38" s="36"/>
-      <c r="G38" s="63"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
@@ -4089,12 +4057,12 @@
         <v>2</v>
       </c>
       <c r="F39" s="37"/>
-      <c r="G39" s="63"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="56"/>
+      <c r="B40" s="62" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4108,12 +4076,12 @@
         <v>2</v>
       </c>
       <c r="F40" s="37"/>
-      <c r="G40" s="63"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
@@ -4125,12 +4093,12 @@
         <v>2</v>
       </c>
       <c r="F41" s="37"/>
-      <c r="G41" s="63"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4142,12 +4110,12 @@
         <v>2</v>
       </c>
       <c r="F42" s="37"/>
-      <c r="G42" s="63"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="2" t="s">
         <v>68</v>
       </c>
@@ -4159,12 +4127,12 @@
         <v>2</v>
       </c>
       <c r="F43" s="37"/>
-      <c r="G43" s="63"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="50"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="8" t="s">
         <v>70</v>
       </c>
@@ -4176,12 +4144,12 @@
         <v>2</v>
       </c>
       <c r="F44" s="38"/>
-      <c r="G44" s="63"/>
+      <c r="G44" s="43"/>
       <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="8" t="s">
         <v>72</v>
       </c>
@@ -4193,12 +4161,12 @@
         <v>2</v>
       </c>
       <c r="F45" s="38"/>
-      <c r="G45" s="63"/>
+      <c r="G45" s="43"/>
       <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
-      <c r="B46" s="49" t="s">
+      <c r="A46" s="56"/>
+      <c r="B46" s="62" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -4212,12 +4180,12 @@
         <v>2</v>
       </c>
       <c r="F46" s="38"/>
-      <c r="G46" s="63"/>
+      <c r="G46" s="43"/>
       <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="8" t="s">
         <v>77</v>
       </c>
@@ -4229,12 +4197,12 @@
         <v>2</v>
       </c>
       <c r="F47" s="38"/>
-      <c r="G47" s="63"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="50"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="8" t="s">
         <v>79</v>
       </c>
@@ -4246,12 +4214,12 @@
         <v>2</v>
       </c>
       <c r="F48" s="38"/>
-      <c r="G48" s="63"/>
+      <c r="G48" s="43"/>
       <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="8" t="s">
         <v>81</v>
       </c>
@@ -4263,12 +4231,12 @@
         <v>2</v>
       </c>
       <c r="F49" s="38"/>
-      <c r="G49" s="63"/>
+      <c r="G49" s="43"/>
       <c r="H49" s="34"/>
     </row>
     <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="8" t="s">
         <v>129</v>
       </c>
@@ -4280,11 +4248,11 @@
         <v>1</v>
       </c>
       <c r="F50" s="38"/>
-      <c r="G50" s="63"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="2" t="s">
         <v>131</v>
       </c>
@@ -4299,12 +4267,12 @@
         <v>2</v>
       </c>
       <c r="F51" s="38"/>
-      <c r="G51" s="63"/>
+      <c r="G51" s="43"/>
       <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="56"/>
+      <c r="B52" s="62" t="s">
         <v>132</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -4318,12 +4286,12 @@
         <v>2</v>
       </c>
       <c r="F52" s="38"/>
-      <c r="G52" s="63"/>
+      <c r="G52" s="43"/>
       <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="10" t="s">
         <v>88</v>
       </c>
@@ -4335,12 +4303,12 @@
         <v>2</v>
       </c>
       <c r="F53" s="38"/>
-      <c r="G53" s="63"/>
+      <c r="G53" s="43"/>
       <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52" t="s">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -4354,12 +4322,12 @@
         <v>2</v>
       </c>
       <c r="F54" s="38"/>
-      <c r="G54" s="63"/>
+      <c r="G54" s="43"/>
       <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="19" t="s">
         <v>93</v>
       </c>
@@ -4371,12 +4339,12 @@
         <v>2</v>
       </c>
       <c r="F55" s="38"/>
-      <c r="G55" s="63"/>
+      <c r="G55" s="43"/>
       <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="56"/>
+      <c r="B56" s="62" t="s">
         <v>95</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -4390,12 +4358,12 @@
         <v>2</v>
       </c>
       <c r="F56" s="38"/>
-      <c r="G56" s="63"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="50"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="8" t="s">
         <v>98</v>
       </c>
@@ -4407,12 +4375,12 @@
         <v>2</v>
       </c>
       <c r="F57" s="38"/>
-      <c r="G57" s="63"/>
+      <c r="G57" s="43"/>
       <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="50"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="8" t="s">
         <v>100</v>
       </c>
@@ -4424,12 +4392,12 @@
         <v>2</v>
       </c>
       <c r="F58" s="38"/>
-      <c r="G58" s="63"/>
+      <c r="G58" s="43"/>
       <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="50"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="8" t="s">
         <v>102</v>
       </c>
@@ -4441,12 +4409,12 @@
         <v>2</v>
       </c>
       <c r="F59" s="38"/>
-      <c r="G59" s="63"/>
+      <c r="G59" s="43"/>
       <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="50"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="8" t="s">
         <v>104</v>
       </c>
@@ -4458,12 +4426,12 @@
         <v>2</v>
       </c>
       <c r="F60" s="38"/>
-      <c r="G60" s="63"/>
+      <c r="G60" s="43"/>
       <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
-      <c r="B61" s="50"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="8" t="s">
         <v>106</v>
       </c>
@@ -4475,12 +4443,12 @@
         <v>2</v>
       </c>
       <c r="F61" s="38"/>
-      <c r="G61" s="63"/>
+      <c r="G61" s="43"/>
       <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="50"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="8" t="s">
         <v>108</v>
       </c>
@@ -4492,12 +4460,12 @@
         <v>2</v>
       </c>
       <c r="F62" s="38"/>
-      <c r="G62" s="63"/>
+      <c r="G62" s="43"/>
       <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
-      <c r="B63" s="50"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="8" t="s">
         <v>110</v>
       </c>
@@ -4509,12 +4477,12 @@
         <v>2</v>
       </c>
       <c r="F63" s="38"/>
-      <c r="G63" s="63"/>
+      <c r="G63" s="43"/>
       <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
-      <c r="B64" s="50"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="8" t="s">
         <v>112</v>
       </c>
@@ -4526,12 +4494,12 @@
         <v>2</v>
       </c>
       <c r="F64" s="38"/>
-      <c r="G64" s="63"/>
+      <c r="G64" s="43"/>
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
-      <c r="B65" s="51"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="8" t="s">
         <v>114</v>
       </c>
@@ -4543,12 +4511,12 @@
         <v>2</v>
       </c>
       <c r="F65" s="38"/>
-      <c r="G65" s="63"/>
+      <c r="G65" s="43"/>
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52" t="s">
+      <c r="A66" s="56"/>
+      <c r="B66" s="56" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -4562,12 +4530,12 @@
         <v>2</v>
       </c>
       <c r="F66" s="38"/>
-      <c r="G66" s="63"/>
+      <c r="G66" s="43"/>
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="8" t="s">
         <v>119</v>
       </c>
@@ -4579,12 +4547,12 @@
         <v>2</v>
       </c>
       <c r="F67" s="38"/>
-      <c r="G67" s="63"/>
+      <c r="G67" s="43"/>
       <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="8" t="s">
         <v>121</v>
       </c>
@@ -4596,12 +4564,12 @@
         <v>2</v>
       </c>
       <c r="F68" s="38"/>
-      <c r="G68" s="63"/>
+      <c r="G68" s="43"/>
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="8" t="s">
         <v>123</v>
       </c>
@@ -4613,12 +4581,12 @@
         <v>2</v>
       </c>
       <c r="F69" s="38"/>
-      <c r="G69" s="63"/>
+      <c r="G69" s="43"/>
       <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="8" t="s">
         <v>125</v>
       </c>
@@ -4630,17 +4598,17 @@
         <v>2</v>
       </c>
       <c r="F70" s="38"/>
-      <c r="G70" s="63"/>
+      <c r="G70" s="43"/>
       <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" ht="24" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="40" t="s">
         <v>136</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -4653,15 +4621,15 @@
       <c r="F71" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="G71" s="63" t="s">
+      <c r="G71" s="43" t="s">
         <v>246</v>
       </c>
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="60" t="s">
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="40" t="s">
         <v>138</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -4674,15 +4642,15 @@
       <c r="F72" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="G72" s="63" t="s">
+      <c r="G72" s="43" t="s">
         <v>247</v>
       </c>
       <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="60" t="s">
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="40" t="s">
         <v>140</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -4695,12 +4663,12 @@
       <c r="F73" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="G73" s="63"/>
+      <c r="G73" s="43"/>
       <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="2" t="s">
         <v>141</v>
       </c>
@@ -4714,13 +4682,13 @@
       <c r="F74" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="G74" s="63"/>
+      <c r="G74" s="43"/>
       <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="60" t="s">
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="40" t="s">
         <v>143</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -4733,13 +4701,13 @@
       <c r="F75" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="G75" s="63"/>
+      <c r="G75" s="43"/>
       <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="60" t="s">
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="40" t="s">
         <v>145</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -4752,12 +4720,12 @@
       <c r="F76" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="G76" s="63"/>
+      <c r="G76" s="43"/>
       <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="50"/>
-      <c r="B77" s="49" t="s">
+      <c r="A77" s="59"/>
+      <c r="B77" s="62" t="s">
         <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -4773,12 +4741,12 @@
       <c r="F77" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G77" s="63"/>
+      <c r="G77" s="43"/>
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="50"/>
-      <c r="B78" s="51"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
@@ -4792,12 +4760,12 @@
       <c r="F78" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G78" s="63"/>
+      <c r="G78" s="43"/>
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="50"/>
-      <c r="B79" s="53" t="s">
+      <c r="A79" s="59"/>
+      <c r="B79" s="64" t="s">
         <v>152</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -4813,12 +4781,12 @@
       <c r="F79" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G79" s="63"/>
+      <c r="G79" s="43"/>
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="50"/>
-      <c r="B80" s="54"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="8" t="s">
         <v>155</v>
       </c>
@@ -4832,15 +4800,15 @@
       <c r="F80" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G80" s="63"/>
+      <c r="G80" s="43"/>
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
-      <c r="B81" s="52" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="40" t="s">
         <v>158</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -4853,13 +4821,13 @@
       <c r="F81" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="G81" s="63"/>
+      <c r="G81" s="43"/>
       <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="60" t="s">
+      <c r="A82" s="59"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="40" t="s">
         <v>160</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4872,12 +4840,12 @@
       <c r="F82" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="G82" s="63"/>
+      <c r="G82" s="43"/>
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
-      <c r="B83" s="49" t="s">
+      <c r="A83" s="59"/>
+      <c r="B83" s="62" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -4893,12 +4861,12 @@
       <c r="F83" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="63"/>
+      <c r="G83" s="43"/>
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="8" t="s">
         <v>162</v>
       </c>
@@ -4912,12 +4880,12 @@
       <c r="F84" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="G84" s="63"/>
+      <c r="G84" s="43"/>
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="8" t="s">
         <v>166</v>
       </c>
@@ -4931,12 +4899,12 @@
       <c r="F85" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G85" s="63"/>
+      <c r="G85" s="43"/>
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="8" t="s">
         <v>168</v>
       </c>
@@ -4950,12 +4918,12 @@
       <c r="F86" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G86" s="63"/>
+      <c r="G86" s="43"/>
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
       <c r="C87" s="8" t="s">
         <v>170</v>
       </c>
@@ -4969,12 +4937,12 @@
       <c r="F87" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G87" s="63"/>
+      <c r="G87" s="43"/>
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="50"/>
-      <c r="B88" s="51"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="8" t="s">
         <v>172</v>
       </c>
@@ -4988,12 +4956,12 @@
       <c r="F88" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="G88" s="63"/>
+      <c r="G88" s="43"/>
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="50"/>
-      <c r="B89" s="52" t="s">
+      <c r="A89" s="59"/>
+      <c r="B89" s="56" t="s">
         <v>174</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -5009,12 +4977,12 @@
       <c r="F89" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G89" s="63"/>
+      <c r="G89" s="43"/>
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="50"/>
-      <c r="B90" s="52"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="56"/>
       <c r="C90" s="8" t="s">
         <v>177</v>
       </c>
@@ -5028,12 +4996,12 @@
       <c r="F90" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G90" s="63"/>
+      <c r="G90" s="43"/>
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="50"/>
-      <c r="B91" s="52"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="56"/>
       <c r="C91" s="8" t="s">
         <v>179</v>
       </c>
@@ -5047,12 +5015,12 @@
       <c r="F91" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G91" s="63"/>
+      <c r="G91" s="43"/>
       <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="51"/>
-      <c r="B92" s="52"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="56"/>
       <c r="C92" s="8" t="s">
         <v>181</v>
       </c>
@@ -5066,7 +5034,7 @@
       <c r="F92" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="G92" s="63"/>
+      <c r="G92" s="43"/>
       <c r="H92" s="34"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5113,6 +5081,13 @@
   </sheetData>
   <autoFilter ref="A1:H92"/>
   <mergeCells count="23">
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="A2:A35"/>
     <mergeCell ref="A36:A70"/>
     <mergeCell ref="A71:A92"/>
@@ -5129,26 +5104,19 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B65"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$F$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>$F$100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$F$99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>$F$97</formula>
       <formula>$F$98</formula>
     </cfRule>
@@ -5204,4 +5172,76 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J9:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Public Welfare Platform Quotation.xlsx
+++ b/Public Welfare Platform Quotation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="271">
   <si>
     <t>序号</t>
   </si>
@@ -1314,35 +1314,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>注册</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据激活码激活用户</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存用户instance和激活profile，并发送激活邮件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送验证码，验证通过后创建用户</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新用户其他信息</t>
+    <t>短信注册</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到用户信息页面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息更新</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送验证码，用户确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台更新用户信息，active=True</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台创建User Profile (active=False)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动登陆</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1350,7 +1350,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>发送验证码，验证通过后浸入设置密码界面</t>
+    <t>后台确认该用户已存在并激活</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功后跳转到主页</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1358,7 +1362,47 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>验证成功后如果是新用户则进入注册界面，否则自动登陆</t>
+    <t>跳转到登陆界面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息验证</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是从微信登陆而来，链接账户到微信账户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信验证，并创建微信账户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功后绑定微信账户到用户信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动登陆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱注册</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户Profile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建RegistrationProfile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送激活邮件</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1763,6 +1807,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1793,37 +1840,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,7 +1880,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1850,14 +1901,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2261,7 +2305,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -2288,7 +2332,7 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2313,7 +2357,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
@@ -2338,7 +2382,7 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2363,7 +2407,7 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
@@ -2388,7 +2432,7 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
@@ -2413,7 +2457,7 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
@@ -2438,11 +2482,11 @@
       <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="26" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2504,7 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2487,7 +2531,7 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
@@ -2512,7 +2556,7 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
@@ -2537,7 +2581,7 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
@@ -2562,7 +2606,7 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
@@ -2587,11 +2631,11 @@
       <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="28" t="s">
         <v>8</v>
       </c>
@@ -2609,7 +2653,7 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -2629,7 +2673,7 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="13" t="s">
         <v>38</v>
       </c>
@@ -2647,7 +2691,7 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
@@ -2665,7 +2709,7 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="52"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="13" t="s">
         <v>42</v>
       </c>
@@ -2683,11 +2727,11 @@
       <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="26" t="s">
         <v>37</v>
       </c>
@@ -2760,7 +2804,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -2778,7 +2822,7 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2794,7 +2838,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
@@ -2810,7 +2854,7 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2826,7 +2870,7 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
@@ -2842,7 +2886,7 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2902,7 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
@@ -2874,11 +2918,11 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="16" t="s">
         <v>8</v>
       </c>
@@ -2888,7 +2932,7 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2906,7 +2950,7 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
@@ -2922,7 +2966,7 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2938,7 +2982,7 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -2954,7 +2998,7 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
@@ -2970,7 +3014,7 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
@@ -2986,7 +3030,7 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
@@ -3002,11 +3046,11 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
@@ -3016,7 +3060,7 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3034,7 +3078,7 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
@@ -3050,7 +3094,7 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
@@ -3066,7 +3110,7 @@
       <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
@@ -3082,7 +3126,7 @@
       <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="13" t="s">
         <v>29</v>
       </c>
@@ -3098,7 +3142,7 @@
       <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
@@ -3114,11 +3158,11 @@
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="14" t="s">
         <v>8</v>
       </c>
@@ -3128,7 +3172,7 @@
       <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -3148,7 +3192,7 @@
       <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
@@ -3164,7 +3208,7 @@
       <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
@@ -3180,7 +3224,7 @@
       <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="13" t="s">
         <v>42</v>
       </c>
@@ -3196,11 +3240,11 @@
       <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="16" t="s">
         <v>37</v>
       </c>
@@ -3273,10 +3317,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="65" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -3289,8 +3333,8 @@
         <f t="shared" ref="E2:E33" si="0">COUNTIF(C:C,C2)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="66" t="s">
-        <v>210</v>
+      <c r="F2" s="46" t="s">
+        <v>208</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>230</v>
@@ -3298,8 +3342,8 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="39" t="s">
         <v>56</v>
       </c>
@@ -3319,8 +3363,8 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="39" t="s">
         <v>185</v>
       </c>
@@ -3340,8 +3384,8 @@
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="40" t="s">
         <v>59</v>
       </c>
@@ -3361,8 +3405,8 @@
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="57" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="40" t="s">
@@ -3382,8 +3426,8 @@
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="40" t="s">
         <v>64</v>
       </c>
@@ -3403,8 +3447,8 @@
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="40" t="s">
         <v>66</v>
       </c>
@@ -3424,8 +3468,8 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="40" t="s">
         <v>68</v>
       </c>
@@ -3445,8 +3489,8 @@
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="8" t="s">
         <v>70</v>
       </c>
@@ -3466,8 +3510,8 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="40" t="s">
         <v>72</v>
       </c>
@@ -3487,8 +3531,8 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="57" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="40" t="s">
@@ -3510,8 +3554,8 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="40" t="s">
         <v>77</v>
       </c>
@@ -3531,8 +3575,8 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="40" t="s">
         <v>79</v>
       </c>
@@ -3550,8 +3594,8 @@
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="40" t="s">
         <v>81</v>
       </c>
@@ -3569,8 +3613,8 @@
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="57" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="40" t="s">
@@ -3592,8 +3636,8 @@
       <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="40" t="s">
         <v>86</v>
       </c>
@@ -3613,8 +3657,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="41" t="s">
         <v>88</v>
       </c>
@@ -3634,8 +3678,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="66" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -3655,8 +3699,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="40" t="s">
         <v>93</v>
       </c>
@@ -3674,8 +3718,8 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="57" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -3697,8 +3741,8 @@
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="40" t="s">
         <v>98</v>
       </c>
@@ -3718,8 +3762,8 @@
       <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="40" t="s">
         <v>100</v>
       </c>
@@ -3739,8 +3783,8 @@
       <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="40" t="s">
         <v>102</v>
       </c>
@@ -3758,8 +3802,8 @@
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="40" t="s">
         <v>104</v>
       </c>
@@ -3779,8 +3823,8 @@
       <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="40" t="s">
         <v>106</v>
       </c>
@@ -3800,8 +3844,8 @@
       <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="40" t="s">
         <v>108</v>
       </c>
@@ -3821,8 +3865,8 @@
       <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="40" t="s">
         <v>110</v>
       </c>
@@ -3840,8 +3884,8 @@
       <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="40" t="s">
         <v>112</v>
       </c>
@@ -3859,8 +3903,8 @@
       <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="40" t="s">
         <v>114</v>
       </c>
@@ -3878,8 +3922,8 @@
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="40" t="s">
@@ -3903,8 +3947,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="40" t="s">
         <v>119</v>
       </c>
@@ -3926,8 +3970,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="40" t="s">
         <v>121</v>
       </c>
@@ -3949,8 +3993,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="40" t="s">
         <v>123</v>
       </c>
@@ -3968,8 +4012,8 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="40" t="s">
         <v>125</v>
       </c>
@@ -3989,10 +4033,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="65" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -4010,8 +4054,8 @@
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="61"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="22" t="s">
         <v>56</v>
       </c>
@@ -4027,8 +4071,8 @@
       <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="3" t="s">
         <v>186</v>
       </c>
@@ -4044,8 +4088,8 @@
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
@@ -4061,8 +4105,8 @@
       <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="62" t="s">
+      <c r="A40" s="60"/>
+      <c r="B40" s="57" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4080,8 +4124,8 @@
       <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
@@ -4097,8 +4141,8 @@
       <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4158,8 @@
       <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="2" t="s">
         <v>68</v>
       </c>
@@ -4131,8 +4175,8 @@
       <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="8" t="s">
         <v>70</v>
       </c>
@@ -4148,8 +4192,8 @@
       <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="8" t="s">
         <v>72</v>
       </c>
@@ -4165,8 +4209,8 @@
       <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="62" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="57" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -4184,8 +4228,8 @@
       <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="8" t="s">
         <v>77</v>
       </c>
@@ -4201,8 +4245,8 @@
       <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="8" t="s">
         <v>79</v>
       </c>
@@ -4218,8 +4262,8 @@
       <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="8" t="s">
         <v>81</v>
       </c>
@@ -4235,8 +4279,8 @@
       <c r="H49" s="34"/>
     </row>
     <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="8" t="s">
         <v>129</v>
       </c>
@@ -4252,7 +4296,7 @@
       <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="2" t="s">
         <v>131</v>
       </c>
@@ -4271,8 +4315,8 @@
       <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="62" t="s">
+      <c r="A52" s="60"/>
+      <c r="B52" s="57" t="s">
         <v>132</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -4290,8 +4334,8 @@
       <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="10" t="s">
         <v>88</v>
       </c>
@@ -4307,8 +4351,8 @@
       <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56" t="s">
+      <c r="A54" s="60"/>
+      <c r="B54" s="60" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -4326,8 +4370,8 @@
       <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="19" t="s">
         <v>93</v>
       </c>
@@ -4343,8 +4387,8 @@
       <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
-      <c r="B56" s="62" t="s">
+      <c r="A56" s="60"/>
+      <c r="B56" s="57" t="s">
         <v>95</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -4362,8 +4406,8 @@
       <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="8" t="s">
         <v>98</v>
       </c>
@@ -4379,8 +4423,8 @@
       <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
-      <c r="B58" s="59"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="8" t="s">
         <v>100</v>
       </c>
@@ -4396,8 +4440,8 @@
       <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="8" t="s">
         <v>102</v>
       </c>
@@ -4413,8 +4457,8 @@
       <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="8" t="s">
         <v>104</v>
       </c>
@@ -4430,8 +4474,8 @@
       <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="8" t="s">
         <v>106</v>
       </c>
@@ -4447,8 +4491,8 @@
       <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
-      <c r="B62" s="59"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="8" t="s">
         <v>108</v>
       </c>
@@ -4464,8 +4508,8 @@
       <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="8" t="s">
         <v>110</v>
       </c>
@@ -4481,8 +4525,8 @@
       <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
-      <c r="B64" s="59"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="8" t="s">
         <v>112</v>
       </c>
@@ -4498,8 +4542,8 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="8" t="s">
         <v>114</v>
       </c>
@@ -4515,8 +4559,8 @@
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
-      <c r="B66" s="56" t="s">
+      <c r="A66" s="60"/>
+      <c r="B66" s="60" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -4534,8 +4578,8 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="56"/>
-      <c r="B67" s="56"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="8" t="s">
         <v>119</v>
       </c>
@@ -4551,8 +4595,8 @@
       <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
-      <c r="B68" s="56"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="8" t="s">
         <v>121</v>
       </c>
@@ -4568,8 +4612,8 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="56"/>
-      <c r="B69" s="56"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="8" t="s">
         <v>123</v>
       </c>
@@ -4585,8 +4629,8 @@
       <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="56"/>
-      <c r="B70" s="56"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="8" t="s">
         <v>125</v>
       </c>
@@ -4602,10 +4646,10 @@
       <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" ht="24" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="58" t="s">
+      <c r="A71" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="57" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="40" t="s">
@@ -4627,8 +4671,8 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="40" t="s">
         <v>138</v>
       </c>
@@ -4648,8 +4692,8 @@
       <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
       <c r="C73" s="40" t="s">
         <v>140</v>
       </c>
@@ -4667,8 +4711,8 @@
       <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="2" t="s">
         <v>141</v>
       </c>
@@ -4686,8 +4730,8 @@
       <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="40" t="s">
         <v>143</v>
       </c>
@@ -4705,8 +4749,8 @@
       <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="59"/>
-      <c r="B76" s="60"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="40" t="s">
         <v>145</v>
       </c>
@@ -4724,8 +4768,8 @@
       <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="59"/>
-      <c r="B77" s="62" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="57" t="s">
         <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -4745,8 +4789,8 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="59"/>
-      <c r="B78" s="60"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
@@ -4764,8 +4808,8 @@
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="59"/>
-      <c r="B79" s="64" t="s">
+      <c r="A79" s="58"/>
+      <c r="B79" s="61" t="s">
         <v>152</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -4785,8 +4829,8 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="59"/>
-      <c r="B80" s="65"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="62"/>
       <c r="C80" s="8" t="s">
         <v>155</v>
       </c>
@@ -4804,8 +4848,8 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="59"/>
-      <c r="B81" s="56" t="s">
+      <c r="A81" s="58"/>
+      <c r="B81" s="60" t="s">
         <v>157</v>
       </c>
       <c r="C81" s="40" t="s">
@@ -4825,8 +4869,8 @@
       <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="59"/>
-      <c r="B82" s="56"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="60"/>
       <c r="C82" s="40" t="s">
         <v>160</v>
       </c>
@@ -4844,8 +4888,8 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="59"/>
-      <c r="B83" s="62" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="57" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -4865,8 +4909,8 @@
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
       <c r="C84" s="8" t="s">
         <v>162</v>
       </c>
@@ -4884,8 +4928,8 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
       <c r="C85" s="8" t="s">
         <v>166</v>
       </c>
@@ -4903,8 +4947,8 @@
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
       <c r="C86" s="8" t="s">
         <v>168</v>
       </c>
@@ -4922,8 +4966,8 @@
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="59"/>
-      <c r="B87" s="59"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
       <c r="C87" s="8" t="s">
         <v>170</v>
       </c>
@@ -4941,8 +4985,8 @@
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="59"/>
-      <c r="B88" s="60"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="8" t="s">
         <v>172</v>
       </c>
@@ -4960,8 +5004,8 @@
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="59"/>
-      <c r="B89" s="56" t="s">
+      <c r="A89" s="58"/>
+      <c r="B89" s="60" t="s">
         <v>174</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -4981,8 +5025,8 @@
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="59"/>
-      <c r="B90" s="56"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="60"/>
       <c r="C90" s="8" t="s">
         <v>177</v>
       </c>
@@ -5000,8 +5044,8 @@
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="59"/>
-      <c r="B91" s="56"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="8" t="s">
         <v>179</v>
       </c>
@@ -5019,8 +5063,8 @@
       <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="60"/>
-      <c r="B92" s="56"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="8" t="s">
         <v>181</v>
       </c>
@@ -5081,13 +5125,6 @@
   </sheetData>
   <autoFilter ref="A1:H92"/>
   <mergeCells count="23">
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
     <mergeCell ref="A2:A35"/>
     <mergeCell ref="A36:A70"/>
     <mergeCell ref="A71:A92"/>
@@ -5104,21 +5141,28 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B65"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$F$101</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>$F$97</formula>
+      <formula>$F$98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$F$99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>$F$100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$F$99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>$F$97</formula>
-      <formula>$F$98</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>$F$101</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5176,68 +5220,131 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J9:K17"/>
+  <dimension ref="C5:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J9" sqref="J9:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="10" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="10" max="10" width="45.25" customWidth="1"/>
+    <col min="11" max="11" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J9" t="s">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
         <v>248</v>
       </c>
-      <c r="K9" t="s">
+      <c r="D5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J10" t="s">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
         <v>251</v>
       </c>
-      <c r="K10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J12" t="s">
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
         <v>253</v>
       </c>
-      <c r="K12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J13" t="s">
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
         <v>252</v>
       </c>
-      <c r="K13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J15" t="s">
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J16" t="s">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J17" t="s">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>259</v>
+      </c>
+      <c r="D15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Public Welfare Platform Quotation.xlsx
+++ b/Public Welfare Platform Quotation.xlsx
@@ -3272,10 +3272,10 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3285,7 +3285,7 @@
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="65.625" style="18" customWidth="1"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15" style="31" customWidth="1"/>
     <col min="7" max="7" width="35.5" style="45" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="33" bestFit="1" customWidth="1"/>
   </cols>
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>232</v>
@@ -3397,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>233</v>
@@ -3420,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="34"/>
@@ -3567,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>237</v>
@@ -4032,7 +4032,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="63" t="s">
         <v>127</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="G36" s="43"/>
       <c r="H36" s="34"/>
     </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
       <c r="B37" s="65"/>
       <c r="C37" s="22" t="s">
@@ -4070,7 +4070,7 @@
       <c r="G37" s="43"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
       <c r="B38" s="63"/>
       <c r="C38" s="3" t="s">
@@ -4087,7 +4087,7 @@
       <c r="G38" s="43"/>
       <c r="H38" s="34"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
       <c r="B39" s="60"/>
       <c r="C39" s="2" t="s">
@@ -4104,7 +4104,7 @@
       <c r="G39" s="43"/>
       <c r="H39" s="34"/>
     </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="57" t="s">
         <v>61</v>
@@ -4123,7 +4123,7 @@
       <c r="G40" s="43"/>
       <c r="H40" s="34"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
       <c r="B41" s="58"/>
       <c r="C41" s="2" t="s">
@@ -4140,7 +4140,7 @@
       <c r="G41" s="43"/>
       <c r="H41" s="34"/>
     </row>
-    <row r="42" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
       <c r="B42" s="58"/>
       <c r="C42" s="2" t="s">
@@ -4157,7 +4157,7 @@
       <c r="G42" s="43"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="58"/>
       <c r="C43" s="2" t="s">
@@ -4174,7 +4174,7 @@
       <c r="G43" s="43"/>
       <c r="H43" s="34"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="60"/>
       <c r="B44" s="58"/>
       <c r="C44" s="8" t="s">
@@ -4191,7 +4191,7 @@
       <c r="G44" s="43"/>
       <c r="H44" s="34"/>
     </row>
-    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="60"/>
       <c r="B45" s="59"/>
       <c r="C45" s="8" t="s">
@@ -4208,7 +4208,7 @@
       <c r="G45" s="43"/>
       <c r="H45" s="34"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
       <c r="B46" s="57" t="s">
         <v>74</v>
@@ -4227,7 +4227,7 @@
       <c r="G46" s="43"/>
       <c r="H46" s="34"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="60"/>
       <c r="B47" s="58"/>
       <c r="C47" s="8" t="s">
@@ -4244,7 +4244,7 @@
       <c r="G47" s="43"/>
       <c r="H47" s="34"/>
     </row>
-    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="60"/>
       <c r="B48" s="58"/>
       <c r="C48" s="8" t="s">
@@ -4261,7 +4261,7 @@
       <c r="G48" s="43"/>
       <c r="H48" s="34"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="60"/>
       <c r="B49" s="58"/>
       <c r="C49" s="8" t="s">
@@ -4278,7 +4278,7 @@
       <c r="G49" s="43"/>
       <c r="H49" s="34"/>
     </row>
-    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="60"/>
       <c r="B50" s="59"/>
       <c r="C50" s="8" t="s">
@@ -4295,7 +4295,7 @@
       <c r="G50" s="43"/>
       <c r="H50" s="34"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="60"/>
       <c r="B51" s="2" t="s">
         <v>131</v>
@@ -4314,7 +4314,7 @@
       <c r="G51" s="43"/>
       <c r="H51" s="34"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="57" t="s">
         <v>132</v>
@@ -4333,7 +4333,7 @@
       <c r="G52" s="43"/>
       <c r="H52" s="34"/>
     </row>
-    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="60"/>
       <c r="B53" s="59"/>
       <c r="C53" s="10" t="s">
@@ -4350,7 +4350,7 @@
       <c r="G53" s="43"/>
       <c r="H53" s="34"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="60"/>
       <c r="B54" s="60" t="s">
         <v>90</v>
@@ -4369,7 +4369,7 @@
       <c r="G54" s="43"/>
       <c r="H54" s="34"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="60"/>
       <c r="B55" s="60"/>
       <c r="C55" s="19" t="s">
@@ -4386,7 +4386,7 @@
       <c r="G55" s="43"/>
       <c r="H55" s="34"/>
     </row>
-    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="60"/>
       <c r="B56" s="57" t="s">
         <v>95</v>
@@ -4405,7 +4405,7 @@
       <c r="G56" s="43"/>
       <c r="H56" s="34"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="60"/>
       <c r="B57" s="58"/>
       <c r="C57" s="8" t="s">
@@ -4422,7 +4422,7 @@
       <c r="G57" s="43"/>
       <c r="H57" s="34"/>
     </row>
-    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="60"/>
       <c r="B58" s="58"/>
       <c r="C58" s="8" t="s">
@@ -4439,7 +4439,7 @@
       <c r="G58" s="43"/>
       <c r="H58" s="34"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="60"/>
       <c r="B59" s="58"/>
       <c r="C59" s="8" t="s">
@@ -4456,7 +4456,7 @@
       <c r="G59" s="43"/>
       <c r="H59" s="34"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="60"/>
       <c r="B60" s="58"/>
       <c r="C60" s="8" t="s">
@@ -4473,7 +4473,7 @@
       <c r="G60" s="43"/>
       <c r="H60" s="34"/>
     </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="60"/>
       <c r="B61" s="58"/>
       <c r="C61" s="8" t="s">
@@ -4490,7 +4490,7 @@
       <c r="G61" s="43"/>
       <c r="H61" s="34"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="60"/>
       <c r="B62" s="58"/>
       <c r="C62" s="8" t="s">
@@ -4507,7 +4507,7 @@
       <c r="G62" s="43"/>
       <c r="H62" s="34"/>
     </row>
-    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="60"/>
       <c r="B63" s="58"/>
       <c r="C63" s="8" t="s">
@@ -4524,7 +4524,7 @@
       <c r="G63" s="43"/>
       <c r="H63" s="34"/>
     </row>
-    <row r="64" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="60"/>
       <c r="B64" s="58"/>
       <c r="C64" s="8" t="s">
@@ -4541,7 +4541,7 @@
       <c r="G64" s="43"/>
       <c r="H64" s="34"/>
     </row>
-    <row r="65" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="60"/>
       <c r="B65" s="59"/>
       <c r="C65" s="8" t="s">
@@ -4558,7 +4558,7 @@
       <c r="G65" s="43"/>
       <c r="H65" s="34"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="60"/>
       <c r="B66" s="60" t="s">
         <v>116</v>
@@ -4577,7 +4577,7 @@
       <c r="G66" s="43"/>
       <c r="H66" s="34"/>
     </row>
-    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="60"/>
       <c r="B67" s="60"/>
       <c r="C67" s="8" t="s">
@@ -4594,7 +4594,7 @@
       <c r="G67" s="43"/>
       <c r="H67" s="34"/>
     </row>
-    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="60"/>
       <c r="B68" s="60"/>
       <c r="C68" s="8" t="s">
@@ -4611,7 +4611,7 @@
       <c r="G68" s="43"/>
       <c r="H68" s="34"/>
     </row>
-    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="60"/>
       <c r="B69" s="60"/>
       <c r="C69" s="8" t="s">
@@ -4628,7 +4628,7 @@
       <c r="G69" s="43"/>
       <c r="H69" s="34"/>
     </row>
-    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="60"/>
       <c r="B70" s="60"/>
       <c r="C70" s="8" t="s">
@@ -4645,7 +4645,7 @@
       <c r="G70" s="43"/>
       <c r="H70" s="34"/>
     </row>
-    <row r="71" spans="1:8" ht="24" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="64" t="s">
         <v>134</v>
       </c>

--- a/Public Welfare Platform Quotation.xlsx
+++ b/Public Welfare Platform Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="报价（不含手机APP）" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="功能清单" sheetId="3" r:id="rId3"/>
     <sheet name="定价" sheetId="4" r:id="rId4"/>
     <sheet name="登陆" sheetId="5" r:id="rId5"/>
+    <sheet name="inspection" sheetId="6" r:id="rId6"/>
+    <sheet name="exam" sheetId="7" r:id="rId7"/>
+    <sheet name="invoice" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">功能清单!$A$1:$H$92</definedName>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="294">
   <si>
     <t>序号</t>
   </si>
@@ -1403,6 +1406,101 @@
   </si>
   <si>
     <t>发送激活邮件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入考题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作试卷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加考试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>批阅试卷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息发布</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习考试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常巡检</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防演练</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票识别</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机扫描发票，返回OCR结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒功能</t>
+  </si>
+  <si>
+    <t>增加未读新闻提醒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newsletters</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以前台录入或者数据库导入</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台添加，m2m关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题并提交</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式1：
+所有题目在一张试卷上，答完提交之后不能修改，可以看自己答题结果
+方式2：
+每页一道题目，可以来回翻页。可以做标记，提交完之后不能修改。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改答题结果，添加分数。
+这个只针对特殊授权用户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个巡检内容都有一张表，对于巡检内容会有checklist，并且会有comments一列用于添加说明和拍照</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问连接</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个巡检位置对应一个唯一的二维码，扫描二维码跳入对应网址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成巡检结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台针对巡检内容做统计和审查</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1531,7 +1629,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1565,6 +1663,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1840,16 +1944,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1858,16 +1974,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3271,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
@@ -3317,10 +3431,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -3342,8 +3456,8 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="39" t="s">
         <v>56</v>
       </c>
@@ -3363,8 +3477,8 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="39" t="s">
         <v>185</v>
       </c>
@@ -3384,8 +3498,8 @@
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="40" t="s">
         <v>59</v>
       </c>
@@ -3405,8 +3519,8 @@
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="40" t="s">
@@ -3426,8 +3540,8 @@
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="40" t="s">
         <v>64</v>
       </c>
@@ -3447,8 +3561,8 @@
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="40" t="s">
         <v>66</v>
       </c>
@@ -3468,8 +3582,8 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="40" t="s">
         <v>68</v>
       </c>
@@ -3489,8 +3603,8 @@
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="8" t="s">
         <v>70</v>
       </c>
@@ -3510,8 +3624,8 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="40" t="s">
         <v>72</v>
       </c>
@@ -3531,8 +3645,8 @@
       <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="40" t="s">
@@ -3554,8 +3668,8 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="40" t="s">
         <v>77</v>
       </c>
@@ -3575,8 +3689,8 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="40" t="s">
         <v>79</v>
       </c>
@@ -3594,8 +3708,8 @@
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="40" t="s">
         <v>81</v>
       </c>
@@ -3613,8 +3727,8 @@
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="40" t="s">
@@ -3636,8 +3750,8 @@
       <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="40" t="s">
         <v>86</v>
       </c>
@@ -3657,8 +3771,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="41" t="s">
         <v>88</v>
       </c>
@@ -3678,8 +3792,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="64" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -3699,8 +3813,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="40" t="s">
         <v>93</v>
       </c>
@@ -3718,8 +3832,8 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="57" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="63" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -3741,8 +3855,8 @@
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="40" t="s">
         <v>98</v>
       </c>
@@ -3762,8 +3876,8 @@
       <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="40" t="s">
         <v>100</v>
       </c>
@@ -3783,8 +3897,8 @@
       <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="40" t="s">
         <v>102</v>
       </c>
@@ -3802,8 +3916,8 @@
       <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="40" t="s">
         <v>104</v>
       </c>
@@ -3823,8 +3937,8 @@
       <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="40" t="s">
         <v>106</v>
       </c>
@@ -3844,8 +3958,8 @@
       <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="40" t="s">
         <v>108</v>
       </c>
@@ -3865,8 +3979,8 @@
       <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="40" t="s">
         <v>110</v>
       </c>
@@ -3884,8 +3998,8 @@
       <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="40" t="s">
         <v>112</v>
       </c>
@@ -3903,8 +4017,8 @@
       <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="40" t="s">
         <v>114</v>
       </c>
@@ -3922,8 +4036,8 @@
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="40" t="s">
@@ -3947,8 +4061,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="40" t="s">
         <v>119</v>
       </c>
@@ -3970,8 +4084,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="40" t="s">
         <v>121</v>
       </c>
@@ -3993,8 +4107,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="40" t="s">
         <v>123</v>
       </c>
@@ -4012,8 +4126,8 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="40" t="s">
         <v>125</v>
       </c>
@@ -4033,10 +4147,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -4054,8 +4168,8 @@
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="22" t="s">
         <v>56</v>
       </c>
@@ -4071,8 +4185,8 @@
       <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="3" t="s">
         <v>186</v>
       </c>
@@ -4088,8 +4202,8 @@
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="2" t="s">
         <v>59</v>
       </c>
@@ -4105,8 +4219,8 @@
       <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
-      <c r="B40" s="57" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="63" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4124,8 +4238,8 @@
       <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60"/>
-      <c r="B41" s="58"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="2" t="s">
         <v>64</v>
       </c>
@@ -4141,8 +4255,8 @@
       <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4158,8 +4272,8 @@
       <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="2" t="s">
         <v>68</v>
       </c>
@@ -4175,8 +4289,8 @@
       <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="8" t="s">
         <v>70</v>
       </c>
@@ -4192,8 +4306,8 @@
       <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="8" t="s">
         <v>72</v>
       </c>
@@ -4209,8 +4323,8 @@
       <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
-      <c r="B46" s="57" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -4228,8 +4342,8 @@
       <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="8" t="s">
         <v>77</v>
       </c>
@@ -4245,8 +4359,8 @@
       <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
-      <c r="B48" s="58"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="8" t="s">
         <v>79</v>
       </c>
@@ -4262,8 +4376,8 @@
       <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="8" t="s">
         <v>81</v>
       </c>
@@ -4279,8 +4393,8 @@
       <c r="H49" s="34"/>
     </row>
     <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="8" t="s">
         <v>129</v>
       </c>
@@ -4296,7 +4410,7 @@
       <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="2" t="s">
         <v>131</v>
       </c>
@@ -4315,8 +4429,8 @@
       <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="57" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="63" t="s">
         <v>132</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -4334,8 +4448,8 @@
       <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="60"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="10" t="s">
         <v>88</v>
       </c>
@@ -4351,8 +4465,8 @@
       <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60" t="s">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -4370,8 +4484,8 @@
       <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="19" t="s">
         <v>93</v>
       </c>
@@ -4387,8 +4501,8 @@
       <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="57" t="s">
+      <c r="A56" s="57"/>
+      <c r="B56" s="63" t="s">
         <v>95</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -4406,8 +4520,8 @@
       <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="58"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="8" t="s">
         <v>98</v>
       </c>
@@ -4423,8 +4537,8 @@
       <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
-      <c r="B58" s="58"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="8" t="s">
         <v>100</v>
       </c>
@@ -4440,8 +4554,8 @@
       <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
-      <c r="B59" s="58"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="8" t="s">
         <v>102</v>
       </c>
@@ -4457,8 +4571,8 @@
       <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="60"/>
-      <c r="B60" s="58"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="8" t="s">
         <v>104</v>
       </c>
@@ -4474,8 +4588,8 @@
       <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="60"/>
-      <c r="B61" s="58"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="8" t="s">
         <v>106</v>
       </c>
@@ -4491,8 +4605,8 @@
       <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="60"/>
-      <c r="B62" s="58"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="8" t="s">
         <v>108</v>
       </c>
@@ -4508,8 +4622,8 @@
       <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="60"/>
-      <c r="B63" s="58"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="8" t="s">
         <v>110</v>
       </c>
@@ -4525,8 +4639,8 @@
       <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="60"/>
-      <c r="B64" s="58"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="8" t="s">
         <v>112</v>
       </c>
@@ -4542,8 +4656,8 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="60"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="8" t="s">
         <v>114</v>
       </c>
@@ -4559,8 +4673,8 @@
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60" t="s">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -4578,8 +4692,8 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="8" t="s">
         <v>119</v>
       </c>
@@ -4595,8 +4709,8 @@
       <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="60"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="8" t="s">
         <v>121</v>
       </c>
@@ -4612,8 +4726,8 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="8" t="s">
         <v>123</v>
       </c>
@@ -4629,8 +4743,8 @@
       <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="8" t="s">
         <v>125</v>
       </c>
@@ -4646,10 +4760,10 @@
       <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="63" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="40" t="s">
@@ -4671,8 +4785,8 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="40" t="s">
         <v>138</v>
       </c>
@@ -4692,8 +4806,8 @@
       <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="60"/>
       <c r="C73" s="40" t="s">
         <v>140</v>
       </c>
@@ -4711,8 +4825,8 @@
       <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="2" t="s">
         <v>141</v>
       </c>
@@ -4730,8 +4844,8 @@
       <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="40" t="s">
         <v>143</v>
       </c>
@@ -4749,8 +4863,8 @@
       <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="58"/>
-      <c r="B76" s="59"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="61"/>
       <c r="C76" s="40" t="s">
         <v>145</v>
       </c>
@@ -4768,8 +4882,8 @@
       <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="58"/>
-      <c r="B77" s="57" t="s">
+      <c r="A77" s="60"/>
+      <c r="B77" s="63" t="s">
         <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -4789,8 +4903,8 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="58"/>
-      <c r="B78" s="59"/>
+      <c r="A78" s="60"/>
+      <c r="B78" s="61"/>
       <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
@@ -4808,8 +4922,8 @@
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="58"/>
-      <c r="B79" s="61" t="s">
+      <c r="A79" s="60"/>
+      <c r="B79" s="65" t="s">
         <v>152</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -4829,8 +4943,8 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="58"/>
-      <c r="B80" s="62"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="8" t="s">
         <v>155</v>
       </c>
@@ -4848,8 +4962,8 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="58"/>
-      <c r="B81" s="60" t="s">
+      <c r="A81" s="60"/>
+      <c r="B81" s="57" t="s">
         <v>157</v>
       </c>
       <c r="C81" s="40" t="s">
@@ -4869,8 +4983,8 @@
       <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="58"/>
-      <c r="B82" s="60"/>
+      <c r="A82" s="60"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="40" t="s">
         <v>160</v>
       </c>
@@ -4888,8 +5002,8 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="58"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="60"/>
+      <c r="B83" s="63" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -4909,8 +5023,8 @@
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="58"/>
-      <c r="B84" s="58"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
       <c r="C84" s="8" t="s">
         <v>162</v>
       </c>
@@ -4928,8 +5042,8 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="58"/>
-      <c r="B85" s="58"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
       <c r="C85" s="8" t="s">
         <v>166</v>
       </c>
@@ -4947,8 +5061,8 @@
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="58"/>
-      <c r="B86" s="58"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
       <c r="C86" s="8" t="s">
         <v>168</v>
       </c>
@@ -4966,8 +5080,8 @@
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="58"/>
-      <c r="B87" s="58"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
       <c r="C87" s="8" t="s">
         <v>170</v>
       </c>
@@ -4985,8 +5099,8 @@
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="58"/>
-      <c r="B88" s="59"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="8" t="s">
         <v>172</v>
       </c>
@@ -5004,8 +5118,8 @@
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="58"/>
-      <c r="B89" s="60" t="s">
+      <c r="A89" s="60"/>
+      <c r="B89" s="57" t="s">
         <v>174</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -5025,8 +5139,8 @@
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="58"/>
-      <c r="B90" s="60"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="8" t="s">
         <v>177</v>
       </c>
@@ -5044,8 +5158,8 @@
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="8" t="s">
         <v>179</v>
       </c>
@@ -5063,8 +5177,8 @@
       <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="59"/>
-      <c r="B92" s="60"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="8" t="s">
         <v>181</v>
       </c>
@@ -5125,6 +5239,13 @@
   </sheetData>
   <autoFilter ref="A1:H92"/>
   <mergeCells count="23">
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="A2:A35"/>
     <mergeCell ref="A36:A70"/>
     <mergeCell ref="A71:A92"/>
@@ -5141,13 +5262,6 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B65"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
@@ -5222,8 +5336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:K15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5351,4 +5465,166 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="69"/>
+      <c r="B2" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="exam!A1" display="学习考试"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Public Welfare Platform Quotation.xlsx
+++ b/Public Welfare Platform Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="报价（不含手机APP）" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="inspection" sheetId="6" r:id="rId6"/>
     <sheet name="exam" sheetId="7" r:id="rId7"/>
     <sheet name="invoice" sheetId="8" r:id="rId8"/>
+    <sheet name="css" sheetId="9" r:id="rId9"/>
+    <sheet name="app" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">功能清单!$A$1:$H$92</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="297">
   <si>
     <t>序号</t>
   </si>
@@ -1501,6 +1503,18 @@
   </si>
   <si>
     <t>后台针对巡检内容做统计和审查</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码扫描返回结果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用weUI库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneGap</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2878,6 +2892,27 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
@@ -3386,7 +3421,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
@@ -5471,8 +5506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5519,7 +5554,7 @@
       <c r="B5" t="s">
         <v>292</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="68" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5550,7 +5585,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5603,24 +5638,52 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>279</v>
       </c>
       <c r="B1" t="s">
         <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Public Welfare Platform Quotation.xlsx
+++ b/Public Welfare Platform Quotation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="报价（不含手机APP）" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="298">
   <si>
     <t>序号</t>
   </si>
@@ -1515,6 +1515,10 @@
   </si>
   <si>
     <t>phoneGap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问链接</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2896,7 +2900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5638,10 +5642,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5658,8 +5662,13 @@
       <c r="B1" t="s">
         <v>280</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="67" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
